--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H2">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I2">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J2">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>3.135766541467556</v>
+        <v>136.2780429945306</v>
       </c>
       <c r="R2">
-        <v>28.221898873208</v>
+        <v>1226.502386950776</v>
       </c>
       <c r="S2">
-        <v>0.03841230839815242</v>
+        <v>0.8533952866674414</v>
       </c>
       <c r="T2">
-        <v>0.03841230839815242</v>
+        <v>0.8533952866674414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H3">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I3">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J3">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>63.99970295701955</v>
+        <v>16.867301400628</v>
       </c>
       <c r="R3">
-        <v>575.997326613176</v>
+        <v>151.805712605652</v>
       </c>
       <c r="S3">
-        <v>0.7839793858584411</v>
+        <v>0.1056257867943758</v>
       </c>
       <c r="T3">
-        <v>0.7839793858584412</v>
+        <v>0.1056257867943758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H4">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I4">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J4">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>9.14592153633</v>
+        <v>1.497959367813333</v>
       </c>
       <c r="R4">
-        <v>82.31329382697</v>
+        <v>13.48163431032</v>
       </c>
       <c r="S4">
-        <v>0.1120351129438335</v>
+        <v>0.009380465378142713</v>
       </c>
       <c r="T4">
-        <v>0.1120351129438335</v>
+        <v>0.009380465378142711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>0.567964</v>
       </c>
       <c r="I5">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J5">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N5">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q5">
-        <v>0.02054616080711111</v>
+        <v>0.4193386756231111</v>
       </c>
       <c r="R5">
-        <v>0.184915447264</v>
+        <v>3.774048080608</v>
       </c>
       <c r="S5">
-        <v>0.0002516850201965043</v>
+        <v>0.00262596704084232</v>
       </c>
       <c r="T5">
-        <v>0.0002516850201965043</v>
+        <v>0.00262596704084232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>0.567964</v>
       </c>
       <c r="I6">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J6">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N6">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O6">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P6">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q6">
-        <v>0.4193386756231111</v>
+        <v>0.05190206489066667</v>
       </c>
       <c r="R6">
-        <v>3.774048080608</v>
+        <v>0.467118584016</v>
       </c>
       <c r="S6">
-        <v>0.005136787550443478</v>
+        <v>0.0003250191782382747</v>
       </c>
       <c r="T6">
-        <v>0.005136787550443478</v>
+        <v>0.0003250191782382748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>0.567964</v>
       </c>
       <c r="I7">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J7">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N7">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q7">
-        <v>0.05992588164</v>
+        <v>0.004609343395555555</v>
       </c>
       <c r="R7">
-        <v>0.53933293476</v>
+        <v>0.04148409056</v>
       </c>
       <c r="S7">
-        <v>0.0007340761552706541</v>
+        <v>2.886445858748266E-05</v>
       </c>
       <c r="T7">
-        <v>0.0007340761552706541</v>
+        <v>2.886445858748266E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H8">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I8">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J8">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N8">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q8">
-        <v>0.05412078788088889</v>
+        <v>1.433590526448889</v>
       </c>
       <c r="R8">
-        <v>0.487087090928</v>
+        <v>12.90231473804</v>
       </c>
       <c r="S8">
-        <v>0.0006629652964722162</v>
+        <v>0.008977377216457961</v>
       </c>
       <c r="T8">
-        <v>0.000662965296472216</v>
+        <v>0.008977377216457961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H9">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I9">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J9">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N9">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O9">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P9">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q9">
-        <v>1.104582979112889</v>
+        <v>0.1774372669533334</v>
       </c>
       <c r="R9">
-        <v>9.941246812015997</v>
+        <v>1.59693540258</v>
       </c>
       <c r="S9">
-        <v>0.01353084851309656</v>
+        <v>0.001111141046420842</v>
       </c>
       <c r="T9">
-        <v>0.01353084851309656</v>
+        <v>0.001111141046420842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H10">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I10">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J10">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N10">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q10">
-        <v>0.15785118978</v>
+        <v>0.01575793364444445</v>
       </c>
       <c r="R10">
-        <v>1.42066070802</v>
+        <v>0.1418214028</v>
       </c>
       <c r="S10">
-        <v>0.001933635206148646</v>
+        <v>9.867874533777168E-05</v>
       </c>
       <c r="T10">
-        <v>0.001933635206148646</v>
+        <v>9.867874533777165E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H11">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I11">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J11">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N11">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q11">
-        <v>0.1453847690213333</v>
+        <v>2.593755644884444</v>
       </c>
       <c r="R11">
-        <v>1.308462921192</v>
+        <v>23.34380080396</v>
       </c>
       <c r="S11">
-        <v>0.001780924858464752</v>
+        <v>0.01624252002356895</v>
       </c>
       <c r="T11">
-        <v>0.001780924858464752</v>
+        <v>0.01624252002356895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H12">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I12">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J12">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N12">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O12">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P12">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q12">
-        <v>2.967243227069333</v>
+        <v>0.3210323340466666</v>
       </c>
       <c r="R12">
-        <v>26.705189043624</v>
+        <v>2.88929100642</v>
       </c>
       <c r="S12">
-        <v>0.03634794249611885</v>
+        <v>0.002010356728957931</v>
       </c>
       <c r="T12">
-        <v>0.03634794249611886</v>
+        <v>0.002010356728957931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H13">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I13">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J13">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N13">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q13">
-        <v>0.42403593267</v>
+        <v>0.02851039302222222</v>
       </c>
       <c r="R13">
-        <v>3.81632339403</v>
+        <v>0.2565935372</v>
       </c>
       <c r="S13">
-        <v>0.005194327703361254</v>
+        <v>0.0001785367216285696</v>
       </c>
       <c r="T13">
-        <v>0.005194327703361254</v>
+        <v>0.0001785367216285696</v>
       </c>
     </row>
   </sheetData>
